--- a/tspi/ciclo-2/logt1/20106065.xlsx
+++ b/tspi/ciclo-2/logt1/20106065.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión de equipo para analizar la versión final del documento de requerimientos.</t>
   </si>
   <si>
     <t>Presentar al equipo de la herramienta Redmine.</t>
@@ -269,24 +272,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D10" activeCellId="0" pane="topLeft" sqref="D10"/>
+      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.7960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.7960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.7137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="18.2235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.7960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="50.3607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.7960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="12.8627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.8980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="18.3137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="12.8627450980392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="50.6117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.8627450980392"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -302,7 +305,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -337,8 +340,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
       <c r="E5" s="3" t="n">
-        <f aca="false">SUM(E7:E12)/60</f>
-        <v>4.25</v>
+        <f aca="false">SUM(E7:E13)/60</f>
+        <v>6.13333333333333</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -488,28 +491,52 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
-        <v>41931</v>
+        <v>41930</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.683333333333333</v>
+        <v>0.626388888888889</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.709722222222222</v>
+        <v>0.704861111111111</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">((HOUR(C12)-HOUR(B12))*60)+(MINUTE(C12)-MINUTE(B12))-D12</f>
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="n">
+        <v>41931</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.709722222222222</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <f aca="false">((HOUR(C13)-HOUR(B13))*60)+(MINUTE(C13)-MINUTE(B13))-D13</f>
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
